--- a/template Excel/MKT/PageView.xlsx
+++ b/template Excel/MKT/PageView.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\MKT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E4458F-867F-4202-BC0F-1ED3C3963886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467C6EF3-F6B2-47AE-9B87-9C823CCE4E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2302FF29-9D65-4023-9F83-9EBCB0F4FF54}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{2302FF29-9D65-4023-9F83-9EBCB0F4FF54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,40 +68,40 @@
     <t>Homepage</t>
   </si>
   <si>
-    <t>Product Page A</t>
-  </si>
-  <si>
-    <t>Blog Post 1</t>
-  </si>
-  <si>
-    <t>Contact Us</t>
-  </si>
-  <si>
-    <t>About Us</t>
-  </si>
-  <si>
-    <t>Product Page B</t>
-  </si>
-  <si>
-    <t>Blog Post 2</t>
-  </si>
-  <si>
-    <t>Product Page C</t>
-  </si>
-  <si>
-    <t>Blog Post 3</t>
-  </si>
-  <si>
-    <t>Product Page D</t>
-  </si>
-  <si>
-    <t>Blog Post 4</t>
-  </si>
-  <si>
-    <t>Product Page E</t>
-  </si>
-  <si>
-    <t>Blog Post 5</t>
+    <t>ProductPageA</t>
+  </si>
+  <si>
+    <t>BlogPost1</t>
+  </si>
+  <si>
+    <t>ContactUs</t>
+  </si>
+  <si>
+    <t>AboutUs</t>
+  </si>
+  <si>
+    <t>ProductPageB</t>
+  </si>
+  <si>
+    <t>BlogPost2</t>
+  </si>
+  <si>
+    <t>ProductPageC</t>
+  </si>
+  <si>
+    <t>BlogPost3</t>
+  </si>
+  <si>
+    <t>ProductPageD</t>
+  </si>
+  <si>
+    <t>BlogPost4</t>
+  </si>
+  <si>
+    <t>ProductPageE</t>
+  </si>
+  <si>
+    <t>BlogPost5</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/template Excel/MKT/PageView.xlsx
+++ b/template Excel/MKT/PageView.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\MKT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467C6EF3-F6B2-47AE-9B87-9C823CCE4E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F66062-489A-4C7D-B10F-7D11009D48B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{2302FF29-9D65-4023-9F83-9EBCB0F4FF54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2302FF29-9D65-4023-9F83-9EBCB0F4FF54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,70 +38,70 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>PageViews</t>
+  </si>
+  <si>
+    <t>BounceRate</t>
+  </si>
+  <si>
+    <t>AvgTimeOnPage</t>
+  </si>
+  <si>
+    <t>Likes</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>ProductPageA</t>
+  </si>
+  <si>
+    <t>BlogPost1</t>
+  </si>
+  <si>
+    <t>ContactUs</t>
+  </si>
+  <si>
+    <t>AboutUs</t>
+  </si>
+  <si>
+    <t>ProductPageB</t>
+  </si>
+  <si>
+    <t>BlogPost2</t>
+  </si>
+  <si>
+    <t>ProductPageC</t>
+  </si>
+  <si>
+    <t>BlogPost3</t>
+  </si>
+  <si>
+    <t>ProductPageD</t>
+  </si>
+  <si>
+    <t>BlogPost4</t>
+  </si>
+  <si>
+    <t>ProductPageE</t>
+  </si>
+  <si>
+    <t>BlogPost5</t>
+  </si>
+  <si>
     <t>PageViewId</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>PageViews</t>
-  </si>
-  <si>
-    <t>BounceRate</t>
-  </si>
-  <si>
-    <t>AvgTimeOnPage</t>
-  </si>
-  <si>
-    <t>Likes</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Shares</t>
-  </si>
-  <si>
-    <t>Homepage</t>
-  </si>
-  <si>
-    <t>ProductPageA</t>
-  </si>
-  <si>
-    <t>BlogPost1</t>
-  </si>
-  <si>
-    <t>ContactUs</t>
-  </si>
-  <si>
-    <t>AboutUs</t>
-  </si>
-  <si>
-    <t>ProductPageB</t>
-  </si>
-  <si>
-    <t>BlogPost2</t>
-  </si>
-  <si>
-    <t>ProductPageC</t>
-  </si>
-  <si>
-    <t>BlogPost3</t>
-  </si>
-  <si>
-    <t>ProductPageD</t>
-  </si>
-  <si>
-    <t>BlogPost4</t>
-  </si>
-  <si>
-    <t>ProductPageE</t>
-  </si>
-  <si>
-    <t>BlogPost5</t>
   </si>
 </sst>
 </file>
@@ -492,9 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168ADEE4-AFD3-4C34-9815-1463AB359DC8}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -511,31 +509,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -546,7 +544,7 @@
         <v>45292</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>1500</v>
@@ -575,7 +573,7 @@
         <v>45293</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>800</v>
@@ -604,7 +602,7 @@
         <v>45294</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
         <v>600</v>
@@ -633,7 +631,7 @@
         <v>45295</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
         <v>300</v>
@@ -662,7 +660,7 @@
         <v>45296</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
         <v>400</v>
@@ -691,7 +689,7 @@
         <v>45297</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2">
         <v>1400</v>
@@ -720,7 +718,7 @@
         <v>45298</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
         <v>700</v>
@@ -749,7 +747,7 @@
         <v>45299</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
         <v>500</v>
@@ -778,7 +776,7 @@
         <v>45300</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2">
         <v>1300</v>
@@ -807,7 +805,7 @@
         <v>45301</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2">
         <v>900</v>
@@ -836,7 +834,7 @@
         <v>45302</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2">
         <v>550</v>
@@ -865,7 +863,7 @@
         <v>45303</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2">
         <v>1450</v>
@@ -894,7 +892,7 @@
         <v>45304</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2">
         <v>850</v>
@@ -923,7 +921,7 @@
         <v>45305</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2">
         <v>450</v>
@@ -952,7 +950,7 @@
         <v>45306</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2">
         <v>350</v>
@@ -981,7 +979,7 @@
         <v>45307</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2">
         <v>390</v>
@@ -1010,7 +1008,7 @@
         <v>45308</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2">
         <v>1350</v>
@@ -1039,7 +1037,7 @@
         <v>45309</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2">
         <v>920</v>
@@ -1068,7 +1066,7 @@
         <v>45310</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2">
         <v>600</v>
@@ -1097,7 +1095,7 @@
         <v>45311</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2">
         <v>1200</v>

--- a/template Excel/MKT/PageView.xlsx
+++ b/template Excel/MKT/PageView.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\MKT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F66062-489A-4C7D-B10F-7D11009D48B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE181BCA-BD28-47D5-945B-AE9C3A41012E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2302FF29-9D65-4023-9F83-9EBCB0F4FF54}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -103,12 +103,36 @@
   <si>
     <t>PageViewId</t>
   </si>
+  <si>
+    <t>BlogPost6</t>
+  </si>
+  <si>
+    <t>BlogPost7</t>
+  </si>
+  <si>
+    <t>BlogPost8</t>
+  </si>
+  <si>
+    <t>BlogPost9</t>
+  </si>
+  <si>
+    <t>BlogPost10</t>
+  </si>
+  <si>
+    <t>BlogPost11</t>
+  </si>
+  <si>
+    <t>BlogPost12</t>
+  </si>
+  <si>
+    <t>BlogPost13</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +144,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -490,21 +520,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168ADEE4-AFD3-4C34-9815-1463AB359DC8}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J123" sqref="J1:XFD123"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -541,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>45292</v>
+        <v>44927</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -550,7 +582,7 @@
         <v>1500</v>
       </c>
       <c r="E2" s="2">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2">
         <v>120.5</v>
@@ -562,7 +594,7 @@
         <v>50</v>
       </c>
       <c r="I2" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -570,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>45293</v>
+        <v>44932</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -579,7 +611,7 @@
         <v>800</v>
       </c>
       <c r="E3" s="2">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2">
         <v>90.7</v>
@@ -591,7 +623,7 @@
         <v>25</v>
       </c>
       <c r="I3" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -599,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>45294</v>
+        <v>44937</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -608,7 +640,7 @@
         <v>600</v>
       </c>
       <c r="E4" s="2">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2">
         <v>180.2</v>
@@ -620,7 +652,7 @@
         <v>40</v>
       </c>
       <c r="I4" s="2">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -628,7 +660,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>45295</v>
+        <v>44942</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -637,7 +669,7 @@
         <v>300</v>
       </c>
       <c r="E5" s="2">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
         <v>30</v>
@@ -649,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="I5" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -657,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>45296</v>
+        <v>44947</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -666,7 +698,7 @@
         <v>400</v>
       </c>
       <c r="E6" s="2">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2">
         <v>60.8</v>
@@ -678,7 +710,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -686,7 +718,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>45297</v>
+        <v>44952</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -695,7 +727,7 @@
         <v>1400</v>
       </c>
       <c r="E7" s="2">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2">
         <v>110.3</v>
@@ -707,7 +739,7 @@
         <v>45</v>
       </c>
       <c r="I7" s="2">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -715,7 +747,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>45298</v>
+        <v>44957</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -724,7 +756,7 @@
         <v>700</v>
       </c>
       <c r="E8" s="2">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2">
         <v>85.4</v>
@@ -736,7 +768,7 @@
         <v>22</v>
       </c>
       <c r="I8" s="2">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -744,7 +776,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>45299</v>
+        <v>44962</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -753,7 +785,7 @@
         <v>500</v>
       </c>
       <c r="E9" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2">
         <v>170.6</v>
@@ -765,7 +797,7 @@
         <v>35</v>
       </c>
       <c r="I9" s="2">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -773,7 +805,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>45300</v>
+        <v>44967</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -782,7 +814,7 @@
         <v>1300</v>
       </c>
       <c r="E10" s="2">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2">
         <v>105.1</v>
@@ -794,7 +826,7 @@
         <v>42</v>
       </c>
       <c r="I10" s="2">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -802,7 +834,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>45301</v>
+        <v>44972</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -811,7 +843,7 @@
         <v>900</v>
       </c>
       <c r="E11" s="2">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2">
         <v>95.5</v>
@@ -823,7 +855,7 @@
         <v>28</v>
       </c>
       <c r="I11" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -831,7 +863,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>45302</v>
+        <v>44977</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>16</v>
@@ -840,7 +872,7 @@
         <v>550</v>
       </c>
       <c r="E12" s="2">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2">
         <v>160.4</v>
@@ -852,7 +884,7 @@
         <v>32</v>
       </c>
       <c r="I12" s="2">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -860,7 +892,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>45303</v>
+        <v>44982</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -869,7 +901,7 @@
         <v>1450</v>
       </c>
       <c r="E13" s="2">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2">
         <v>115.6</v>
@@ -881,7 +913,7 @@
         <v>48</v>
       </c>
       <c r="I13" s="2">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -889,7 +921,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>45304</v>
+        <v>44987</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
@@ -898,7 +930,7 @@
         <v>850</v>
       </c>
       <c r="E14" s="2">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2">
         <v>100.2</v>
@@ -910,7 +942,7 @@
         <v>26</v>
       </c>
       <c r="I14" s="2">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -918,7 +950,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>45305</v>
+        <v>44992</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
@@ -927,7 +959,7 @@
         <v>450</v>
       </c>
       <c r="E15" s="2">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2">
         <v>150.30000000000001</v>
@@ -939,7 +971,7 @@
         <v>30</v>
       </c>
       <c r="I15" s="2">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -947,7 +979,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>45306</v>
+        <v>44997</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
@@ -956,7 +988,7 @@
         <v>350</v>
       </c>
       <c r="E16" s="2">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="F16" s="2">
         <v>40</v>
@@ -968,7 +1000,7 @@
         <v>17</v>
       </c>
       <c r="I16" s="2">
-        <v>11</v>
+        <v>7.6923076923076898</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -976,7 +1008,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>45307</v>
+        <v>45002</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
@@ -985,7 +1017,7 @@
         <v>390</v>
       </c>
       <c r="E17" s="2">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="F17" s="2">
         <v>50.9</v>
@@ -997,7 +1029,7 @@
         <v>18</v>
       </c>
       <c r="I17" s="2">
-        <v>14</v>
+        <v>8.1846153846153804</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1005,7 +1037,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>45308</v>
+        <v>45007</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>8</v>
@@ -1014,7 +1046,7 @@
         <v>1350</v>
       </c>
       <c r="E18" s="2">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F18" s="2">
         <v>102.7</v>
@@ -1026,7 +1058,7 @@
         <v>43</v>
       </c>
       <c r="I18" s="2">
-        <v>27</v>
+        <v>8.6769230769230798</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1034,7 +1066,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>45309</v>
+        <v>45012</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>19</v>
@@ -1043,10 +1075,10 @@
         <v>920</v>
       </c>
       <c r="E19" s="2">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F19" s="2">
-        <v>97.8</v>
+        <v>98</v>
       </c>
       <c r="G19" s="2">
         <v>115</v>
@@ -1055,7 +1087,7 @@
         <v>27</v>
       </c>
       <c r="I19" s="2">
-        <v>19</v>
+        <v>9.1692307692307704</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1063,7 +1095,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>45310</v>
+        <v>45017</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
@@ -1072,10 +1104,10 @@
         <v>600</v>
       </c>
       <c r="E20" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F20" s="2">
-        <v>170.9</v>
+        <v>171</v>
       </c>
       <c r="G20" s="2">
         <v>140</v>
@@ -1084,7 +1116,7 @@
         <v>34</v>
       </c>
       <c r="I20" s="2">
-        <v>25</v>
+        <v>9.6615384615384592</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1092,7 +1124,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>45311</v>
+        <v>45022</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
@@ -1101,10 +1133,10 @@
         <v>1200</v>
       </c>
       <c r="E21" s="2">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="F21" s="2">
-        <v>100.6</v>
+        <v>100</v>
       </c>
       <c r="G21" s="2">
         <v>170</v>
@@ -1113,10 +1145,2969 @@
         <v>41</v>
       </c>
       <c r="I21" s="2">
+        <v>10.153846153846199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45027</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1186.6666666666699</v>
+      </c>
+      <c r="E22" s="2">
+        <v>28</v>
+      </c>
+      <c r="F22" s="2">
+        <v>125</v>
+      </c>
+      <c r="G22" s="2">
+        <v>196.666666666667</v>
+      </c>
+      <c r="H22" s="2">
+        <v>48</v>
+      </c>
+      <c r="I22" s="2">
+        <v>10.646153846153799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45032</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1326.6666666666699</v>
+      </c>
+      <c r="E23" s="2">
+        <v>27</v>
+      </c>
+      <c r="F23" s="2">
+        <v>126</v>
+      </c>
+      <c r="G23" s="2">
+        <v>224.166666666667</v>
+      </c>
+      <c r="H23" s="2">
+        <v>55</v>
+      </c>
+      <c r="I23" s="2">
+        <v>11.138461538461501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45037</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1466.6666666666699</v>
+      </c>
+      <c r="E24" s="2">
+        <v>31</v>
+      </c>
+      <c r="F24" s="2">
+        <v>127</v>
+      </c>
+      <c r="G24" s="2">
+        <v>251.666666666667</v>
+      </c>
+      <c r="H24" s="2">
+        <v>62</v>
+      </c>
+      <c r="I24" s="2">
+        <v>11.6307692307692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45042</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1606.6666666666699</v>
+      </c>
+      <c r="E25" s="2">
         <v>30</v>
       </c>
+      <c r="F25" s="2">
+        <v>128</v>
+      </c>
+      <c r="G25" s="2">
+        <v>279.16666666666703</v>
+      </c>
+      <c r="H25" s="2">
+        <v>69</v>
+      </c>
+      <c r="I25" s="2">
+        <v>12.1230769230769</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45047</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1746.6666666666699</v>
+      </c>
+      <c r="E26" s="2">
+        <v>29</v>
+      </c>
+      <c r="F26" s="2">
+        <v>129</v>
+      </c>
+      <c r="G26" s="2">
+        <v>306.66666666666703</v>
+      </c>
+      <c r="H26" s="2">
+        <v>76</v>
+      </c>
+      <c r="I26" s="2">
+        <v>12.615384615384601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45052</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1886.6666666666699</v>
+      </c>
+      <c r="E27" s="2">
+        <v>28</v>
+      </c>
+      <c r="F27" s="2">
+        <v>130</v>
+      </c>
+      <c r="G27" s="2">
+        <v>334.16666666666703</v>
+      </c>
+      <c r="H27" s="2">
+        <v>83</v>
+      </c>
+      <c r="I27" s="2">
+        <v>13.1076923076923</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45057</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2026.6666666666699</v>
+      </c>
+      <c r="E28" s="2">
+        <v>27</v>
+      </c>
+      <c r="F28" s="2">
+        <v>131</v>
+      </c>
+      <c r="G28" s="2">
+        <v>361.66666666666703</v>
+      </c>
+      <c r="H28" s="2">
+        <v>90</v>
+      </c>
+      <c r="I28" s="2">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45062</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2166.6666666666702</v>
+      </c>
+      <c r="E29" s="2">
+        <v>32</v>
+      </c>
+      <c r="F29" s="2">
+        <v>132</v>
+      </c>
+      <c r="G29" s="2">
+        <v>389.16666666666703</v>
+      </c>
+      <c r="H29" s="2">
+        <v>97</v>
+      </c>
+      <c r="I29" s="2">
+        <v>14.092307692307701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45067</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2306.6666666666702</v>
+      </c>
+      <c r="E30" s="2">
+        <v>31</v>
+      </c>
+      <c r="F30" s="2">
+        <v>133</v>
+      </c>
+      <c r="G30" s="2">
+        <v>416.66666666666703</v>
+      </c>
+      <c r="H30" s="2">
+        <v>104</v>
+      </c>
+      <c r="I30" s="2">
+        <v>14.5846153846154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45072</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2446.6666666666702</v>
+      </c>
+      <c r="E31" s="2">
+        <v>30</v>
+      </c>
+      <c r="F31" s="2">
+        <v>134</v>
+      </c>
+      <c r="G31" s="2">
+        <v>444.16666666666703</v>
+      </c>
+      <c r="H31" s="2">
+        <v>111</v>
+      </c>
+      <c r="I31" s="2">
+        <v>15.0769230769231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45077</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2586.6666666666702</v>
+      </c>
+      <c r="E32" s="2">
+        <v>29</v>
+      </c>
+      <c r="F32" s="2">
+        <v>135</v>
+      </c>
+      <c r="G32" s="2">
+        <v>471.66666666666703</v>
+      </c>
+      <c r="H32" s="2">
+        <v>118</v>
+      </c>
+      <c r="I32" s="2">
+        <v>15.569230769230799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45082</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2726.6666666666702</v>
+      </c>
+      <c r="E33" s="2">
+        <v>28</v>
+      </c>
+      <c r="F33" s="2">
+        <v>136</v>
+      </c>
+      <c r="G33" s="2">
+        <v>499.16666666666703</v>
+      </c>
+      <c r="H33" s="2">
+        <v>125</v>
+      </c>
+      <c r="I33" s="2">
+        <v>16.0615384615385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45087</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2866.6666666666702</v>
+      </c>
+      <c r="E34" s="2">
+        <v>27</v>
+      </c>
+      <c r="F34" s="2">
+        <v>137</v>
+      </c>
+      <c r="G34" s="2">
+        <v>526.66666666666697</v>
+      </c>
+      <c r="H34" s="2">
+        <v>132</v>
+      </c>
+      <c r="I34" s="2">
+        <v>16.553846153846202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
+        <v>45092</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3006.6666666666702</v>
+      </c>
+      <c r="E35" s="2">
+        <v>73</v>
+      </c>
+      <c r="F35" s="2">
+        <v>138</v>
+      </c>
+      <c r="G35" s="2">
+        <v>554.16666666666697</v>
+      </c>
+      <c r="H35" s="2">
+        <v>139</v>
+      </c>
+      <c r="I35" s="2">
+        <v>17.0461538461538</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <v>45097</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3146.6666666666702</v>
+      </c>
+      <c r="E36" s="2">
+        <v>34</v>
+      </c>
+      <c r="F36" s="2">
+        <v>139</v>
+      </c>
+      <c r="G36" s="2">
+        <v>581.66666666666697</v>
+      </c>
+      <c r="H36" s="2">
+        <v>146</v>
+      </c>
+      <c r="I36" s="2">
+        <v>17.538461538461501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>45102</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3286.6666666666702</v>
+      </c>
+      <c r="E37" s="2">
+        <v>33</v>
+      </c>
+      <c r="F37" s="2">
+        <v>140</v>
+      </c>
+      <c r="G37" s="2">
+        <v>609.16666666666697</v>
+      </c>
+      <c r="H37" s="2">
+        <v>153</v>
+      </c>
+      <c r="I37" s="2">
+        <v>18.030769230769199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>45107</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3426.6666666666702</v>
+      </c>
+      <c r="E38" s="2">
+        <v>32</v>
+      </c>
+      <c r="F38" s="2">
+        <v>141</v>
+      </c>
+      <c r="G38" s="2">
+        <v>636.66666666666697</v>
+      </c>
+      <c r="H38" s="2">
+        <v>160</v>
+      </c>
+      <c r="I38" s="2">
+        <v>18.5230769230769</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3">
+        <v>45112</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3566.6666666666702</v>
+      </c>
+      <c r="E39" s="2">
+        <v>31</v>
+      </c>
+      <c r="F39" s="2">
+        <v>142</v>
+      </c>
+      <c r="G39" s="2">
+        <v>664.16666666666697</v>
+      </c>
+      <c r="H39" s="2">
+        <v>167</v>
+      </c>
+      <c r="I39" s="2">
+        <v>19.015384615384601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3">
+        <v>45117</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="2">
+        <v>3706.6666666666702</v>
+      </c>
+      <c r="E40" s="2">
+        <v>30</v>
+      </c>
+      <c r="F40" s="2">
+        <v>143</v>
+      </c>
+      <c r="G40" s="2">
+        <v>691.66666666666697</v>
+      </c>
+      <c r="H40" s="2">
+        <v>174</v>
+      </c>
+      <c r="I40" s="2">
+        <v>19.507692307692299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <v>45122</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3846.6666666666702</v>
+      </c>
+      <c r="E41" s="2">
+        <v>29</v>
+      </c>
+      <c r="F41" s="2">
+        <v>144</v>
+      </c>
+      <c r="G41" s="2">
+        <v>719.16666666666697</v>
+      </c>
+      <c r="H41" s="2">
+        <v>181</v>
+      </c>
+      <c r="I41" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>45127</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2">
+        <v>3986.6666666666702</v>
+      </c>
+      <c r="E42" s="2">
+        <v>28</v>
+      </c>
+      <c r="F42" s="2">
+        <v>145</v>
+      </c>
+      <c r="G42" s="2">
+        <v>746.66666666666697</v>
+      </c>
+      <c r="H42" s="2">
+        <v>188</v>
+      </c>
+      <c r="I42" s="2">
+        <v>20.492307692307701</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3">
+        <v>45132</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4126.6666666666697</v>
+      </c>
+      <c r="E43" s="2">
+        <v>27</v>
+      </c>
+      <c r="F43" s="2">
+        <v>146</v>
+      </c>
+      <c r="G43" s="2">
+        <v>774.16666666666697</v>
+      </c>
+      <c r="H43" s="2">
+        <v>195</v>
+      </c>
+      <c r="I43" s="2">
+        <v>20.984615384615399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>45137</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4266.6666666666697</v>
+      </c>
+      <c r="E44" s="2">
+        <v>64</v>
+      </c>
+      <c r="F44" s="2">
+        <v>147</v>
+      </c>
+      <c r="G44" s="2">
+        <v>801.66666666666697</v>
+      </c>
+      <c r="H44" s="2">
+        <v>202</v>
+      </c>
+      <c r="I44" s="2">
+        <v>21.4769230769231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3">
+        <v>45142</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="2">
+        <v>4406.6666666666697</v>
+      </c>
+      <c r="E45" s="2">
+        <v>63</v>
+      </c>
+      <c r="F45" s="2">
+        <v>148</v>
+      </c>
+      <c r="G45" s="2">
+        <v>829.16666666666697</v>
+      </c>
+      <c r="H45" s="2">
+        <v>209</v>
+      </c>
+      <c r="I45" s="2">
+        <v>21.969230769230801</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>45147</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4546.6666666666697</v>
+      </c>
+      <c r="E46" s="2">
+        <v>62</v>
+      </c>
+      <c r="F46" s="2">
+        <v>149</v>
+      </c>
+      <c r="G46" s="2">
+        <v>856.66666666666697</v>
+      </c>
+      <c r="H46" s="2">
+        <v>216</v>
+      </c>
+      <c r="I46" s="2">
+        <v>22.461538461538499</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3">
+        <v>45152</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4686.6666666666697</v>
+      </c>
+      <c r="E47" s="2">
+        <v>61</v>
+      </c>
+      <c r="F47" s="2">
+        <v>150</v>
+      </c>
+      <c r="G47" s="2">
+        <v>884.16666666666697</v>
+      </c>
+      <c r="H47" s="2">
+        <v>223</v>
+      </c>
+      <c r="I47" s="2">
+        <v>22.9538461538462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>45157</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2">
+        <v>4826.6666666666697</v>
+      </c>
+      <c r="E48" s="2">
+        <v>60</v>
+      </c>
+      <c r="F48" s="2">
+        <v>151</v>
+      </c>
+      <c r="G48" s="2">
+        <v>911.66666666666697</v>
+      </c>
+      <c r="H48" s="2">
+        <v>230</v>
+      </c>
+      <c r="I48" s="2">
+        <v>23.446153846153798</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3">
+        <v>45162</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4966.6666666666697</v>
+      </c>
+      <c r="E49" s="2">
+        <v>35</v>
+      </c>
+      <c r="F49" s="2">
+        <v>152</v>
+      </c>
+      <c r="G49" s="2">
+        <v>939.16666666666697</v>
+      </c>
+      <c r="H49" s="2">
+        <v>237</v>
+      </c>
+      <c r="I49" s="2">
+        <v>23.9384615384615</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3">
+        <v>45167</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2">
+        <v>5106.6666666666697</v>
+      </c>
+      <c r="E50" s="2">
+        <v>34</v>
+      </c>
+      <c r="F50" s="2">
+        <v>153</v>
+      </c>
+      <c r="G50" s="2">
+        <v>966.66666666666697</v>
+      </c>
+      <c r="H50" s="2">
+        <v>244</v>
+      </c>
+      <c r="I50" s="2">
+        <v>24.430769230769201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3">
+        <v>45172</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="2">
+        <v>5246.6666666666697</v>
+      </c>
+      <c r="E51" s="2">
+        <v>33</v>
+      </c>
+      <c r="F51" s="2">
+        <v>154</v>
+      </c>
+      <c r="G51" s="2">
+        <v>994.16666666666697</v>
+      </c>
+      <c r="H51" s="2">
+        <v>251</v>
+      </c>
+      <c r="I51" s="2">
+        <v>24.923076923076898</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <v>45177</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="2">
+        <v>5386.6666666666697</v>
+      </c>
+      <c r="E52" s="2">
+        <v>32</v>
+      </c>
+      <c r="F52" s="2">
+        <v>155</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1021.66666666667</v>
+      </c>
+      <c r="H52" s="2">
+        <v>258</v>
+      </c>
+      <c r="I52" s="2">
+        <v>25.4153846153846</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3">
+        <v>45182</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="2">
+        <v>5526.6666666666697</v>
+      </c>
+      <c r="E53" s="2">
+        <v>31</v>
+      </c>
+      <c r="F53" s="2">
+        <v>156</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1049.1666666666699</v>
+      </c>
+      <c r="H53" s="2">
+        <v>265</v>
+      </c>
+      <c r="I53" s="2">
+        <v>25.907692307692301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <v>45187</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="2">
+        <v>5666.6666666666697</v>
+      </c>
+      <c r="E54" s="2">
+        <v>30</v>
+      </c>
+      <c r="F54" s="2">
+        <v>157</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1076.6666666666699</v>
+      </c>
+      <c r="H54" s="2">
+        <v>272</v>
+      </c>
+      <c r="I54" s="2">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <v>45192</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="2">
+        <v>5806.6666666666697</v>
+      </c>
+      <c r="E55" s="2">
+        <v>29</v>
+      </c>
+      <c r="F55" s="2">
+        <v>158</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1104.1666666666699</v>
+      </c>
+      <c r="H55" s="2">
+        <v>279</v>
+      </c>
+      <c r="I55" s="2">
+        <v>26.8923076923077</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <v>45197</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="2">
+        <v>5946.6666666666697</v>
+      </c>
+      <c r="E56" s="2">
+        <v>28</v>
+      </c>
+      <c r="F56" s="2">
+        <v>159</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1131.6666666666699</v>
+      </c>
+      <c r="H56" s="2">
+        <v>286</v>
+      </c>
+      <c r="I56" s="2">
+        <v>27.384615384615401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3">
+        <v>45202</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2">
+        <v>6086.6666666666697</v>
+      </c>
+      <c r="E57" s="2">
+        <v>27</v>
+      </c>
+      <c r="F57" s="2">
+        <v>160</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1159.1666666666699</v>
+      </c>
+      <c r="H57" s="2">
+        <v>293</v>
+      </c>
+      <c r="I57" s="2">
+        <v>27.876923076923099</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3">
+        <v>45207</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="2">
+        <v>6226.6666666666697</v>
+      </c>
+      <c r="E58" s="2">
+        <v>26</v>
+      </c>
+      <c r="F58" s="2">
+        <v>161</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1186.6666666666699</v>
+      </c>
+      <c r="H58" s="2">
+        <v>300</v>
+      </c>
+      <c r="I58" s="2">
+        <v>28.3692307692308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3">
+        <v>45212</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="2">
+        <v>6366.6666666666697</v>
+      </c>
+      <c r="E59" s="2">
+        <v>25</v>
+      </c>
+      <c r="F59" s="2">
+        <v>162</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1214.1666666666699</v>
+      </c>
+      <c r="H59" s="2">
+        <v>307</v>
+      </c>
+      <c r="I59" s="2">
+        <v>28.861538461538501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3">
+        <v>45217</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="2">
+        <v>6506.6666666666697</v>
+      </c>
+      <c r="E60" s="2">
+        <v>35</v>
+      </c>
+      <c r="F60" s="2">
+        <v>163</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1241.6666666666699</v>
+      </c>
+      <c r="H60" s="2">
+        <v>314</v>
+      </c>
+      <c r="I60" s="2">
+        <v>29.353846153846199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3">
+        <v>45222</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="2">
+        <v>6646.6666666666697</v>
+      </c>
+      <c r="E61" s="2">
+        <v>34</v>
+      </c>
+      <c r="F61" s="2">
+        <v>164</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1269.1666666666699</v>
+      </c>
+      <c r="H61" s="2">
+        <v>321</v>
+      </c>
+      <c r="I61" s="2">
+        <v>29.846153846153801</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3">
+        <v>45227</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="2">
+        <v>6786.6666666666697</v>
+      </c>
+      <c r="E62" s="2">
+        <v>33</v>
+      </c>
+      <c r="F62" s="2">
+        <v>165</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1296.6666666666699</v>
+      </c>
+      <c r="H62" s="2">
+        <v>328</v>
+      </c>
+      <c r="I62" s="2">
+        <v>30.338461538461502</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3">
+        <v>45232</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2">
+        <v>6926.6666666666697</v>
+      </c>
+      <c r="E63" s="2">
+        <v>32</v>
+      </c>
+      <c r="F63" s="2">
+        <v>166</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1324.1666666666699</v>
+      </c>
+      <c r="H63" s="2">
+        <v>335</v>
+      </c>
+      <c r="I63" s="2">
+        <v>30.830769230769199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <v>45237</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="2">
+        <v>7066.6666666666697</v>
+      </c>
+      <c r="E64" s="2">
+        <v>31</v>
+      </c>
+      <c r="F64" s="2">
+        <v>167</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1351.6666666666699</v>
+      </c>
+      <c r="H64" s="2">
+        <v>342</v>
+      </c>
+      <c r="I64" s="2">
+        <v>31.323076923076901</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <v>45242</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="2">
+        <v>7206.6666666666697</v>
+      </c>
+      <c r="E65" s="2">
+        <v>30</v>
+      </c>
+      <c r="F65" s="2">
+        <v>168</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1379.1666666666699</v>
+      </c>
+      <c r="H65" s="2">
+        <v>349</v>
+      </c>
+      <c r="I65" s="2">
+        <v>31.815384615384598</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <v>45247</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2">
+        <v>7346.6666666666697</v>
+      </c>
+      <c r="E66" s="2">
+        <v>29</v>
+      </c>
+      <c r="F66" s="2">
+        <v>169</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1406.6666666666699</v>
+      </c>
+      <c r="H66" s="2">
+        <v>356</v>
+      </c>
+      <c r="I66" s="2">
+        <v>32.307692307692299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3">
+        <v>45252</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2">
+        <v>7486.6666666666697</v>
+      </c>
+      <c r="E67" s="2">
+        <v>28</v>
+      </c>
+      <c r="F67" s="2">
+        <v>170</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1434.1666666666699</v>
+      </c>
+      <c r="H67" s="2">
+        <v>363</v>
+      </c>
+      <c r="I67" s="2">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <v>45257</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="2">
+        <v>7626.6666666666697</v>
+      </c>
+      <c r="E68" s="2">
+        <v>27</v>
+      </c>
+      <c r="F68" s="2">
+        <v>171</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1461.6666666666699</v>
+      </c>
+      <c r="H68" s="2">
+        <v>370</v>
+      </c>
+      <c r="I68" s="2">
+        <v>33.292307692307702</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <v>45262</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="2">
+        <v>7766.6666666666697</v>
+      </c>
+      <c r="E69" s="2">
+        <v>26</v>
+      </c>
+      <c r="F69" s="2">
+        <v>172</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1489.1666666666699</v>
+      </c>
+      <c r="H69" s="2">
+        <v>377</v>
+      </c>
+      <c r="I69" s="2">
+        <v>33.7846153846154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>45267</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="2">
+        <v>7906.6666666666697</v>
+      </c>
+      <c r="E70" s="2">
+        <v>25</v>
+      </c>
+      <c r="F70" s="2">
+        <v>173</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1516.6666666666699</v>
+      </c>
+      <c r="H70" s="2">
+        <v>384</v>
+      </c>
+      <c r="I70" s="2">
+        <v>34.276923076923097</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3">
+        <v>45272</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="2">
+        <v>8046.6666666666697</v>
+      </c>
+      <c r="E71" s="2">
+        <v>37</v>
+      </c>
+      <c r="F71" s="2">
+        <v>174</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1544.1666666666699</v>
+      </c>
+      <c r="H71" s="2">
+        <v>391</v>
+      </c>
+      <c r="I71" s="2">
+        <v>34.769230769230802</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>45277</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="2">
+        <v>8186.6666666666697</v>
+      </c>
+      <c r="E72" s="2">
+        <v>36</v>
+      </c>
+      <c r="F72" s="2">
+        <v>175</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1571.6666666666699</v>
+      </c>
+      <c r="H72" s="2">
+        <v>398</v>
+      </c>
+      <c r="I72" s="2">
+        <v>35.2615384615385</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <v>45282</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="2">
+        <v>8326.6666666666697</v>
+      </c>
+      <c r="E73" s="2">
+        <v>35</v>
+      </c>
+      <c r="F73" s="2">
+        <v>176</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1599.1666666666699</v>
+      </c>
+      <c r="H73" s="2">
+        <v>405</v>
+      </c>
+      <c r="I73" s="2">
+        <v>35.753846153846197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <v>45287</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="2">
+        <v>8466.6666666666697</v>
+      </c>
+      <c r="E74" s="2">
+        <v>34</v>
+      </c>
+      <c r="F74" s="2">
+        <v>177</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1626.6666666666699</v>
+      </c>
+      <c r="H74" s="2">
+        <v>412</v>
+      </c>
+      <c r="I74" s="2">
+        <v>36.246153846153803</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3">
+        <v>45292</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="2">
+        <v>8606.6666666666697</v>
+      </c>
+      <c r="E75" s="2">
+        <v>33</v>
+      </c>
+      <c r="F75" s="2">
+        <v>178</v>
+      </c>
+      <c r="G75" s="2">
+        <v>1654.1666666666699</v>
+      </c>
+      <c r="H75" s="2">
+        <v>419</v>
+      </c>
+      <c r="I75" s="2">
+        <v>36.7384615384616</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <v>45297</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="2">
+        <v>8746.6666666666697</v>
+      </c>
+      <c r="E76" s="2">
+        <v>32</v>
+      </c>
+      <c r="F76" s="2">
+        <v>179</v>
+      </c>
+      <c r="G76" s="2">
+        <v>1681.6666666666699</v>
+      </c>
+      <c r="H76" s="2">
+        <v>426</v>
+      </c>
+      <c r="I76" s="2">
+        <v>37.230769230769297</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <v>45302</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="2">
+        <v>8886.6666666666697</v>
+      </c>
+      <c r="E77" s="2">
+        <v>31</v>
+      </c>
+      <c r="F77" s="2">
+        <v>180</v>
+      </c>
+      <c r="G77" s="2">
+        <v>1709.1666666666699</v>
+      </c>
+      <c r="H77" s="2">
+        <v>433</v>
+      </c>
+      <c r="I77" s="2">
+        <v>37.723076923077002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <v>45307</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="2">
+        <v>9026.6666666666697</v>
+      </c>
+      <c r="E78" s="2">
+        <v>30</v>
+      </c>
+      <c r="F78" s="2">
+        <v>181</v>
+      </c>
+      <c r="G78" s="2">
+        <v>1736.6666666666699</v>
+      </c>
+      <c r="H78" s="2">
+        <v>440</v>
+      </c>
+      <c r="I78" s="2">
+        <v>38.2153846153847</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <v>45312</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="2">
+        <v>9166.6666666666697</v>
+      </c>
+      <c r="E79" s="2">
+        <v>29</v>
+      </c>
+      <c r="F79" s="2">
+        <v>182</v>
+      </c>
+      <c r="G79" s="2">
+        <v>1764.1666666666699</v>
+      </c>
+      <c r="H79" s="2">
+        <v>447</v>
+      </c>
+      <c r="I79" s="2">
+        <v>38.707692307692398</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <v>45317</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="2">
+        <v>9306.6666666666697</v>
+      </c>
+      <c r="E80" s="2">
+        <v>28</v>
+      </c>
+      <c r="F80" s="2">
+        <v>183</v>
+      </c>
+      <c r="G80" s="2">
+        <v>1791.6666666666699</v>
+      </c>
+      <c r="H80" s="2">
+        <v>454</v>
+      </c>
+      <c r="I80" s="2">
+        <v>39.200000000000102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3">
+        <v>45322</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="2">
+        <v>9446.6666666666697</v>
+      </c>
+      <c r="E81" s="2">
+        <v>27</v>
+      </c>
+      <c r="F81" s="2">
+        <v>184</v>
+      </c>
+      <c r="G81" s="2">
+        <v>1819.1666666666699</v>
+      </c>
+      <c r="H81" s="2">
+        <v>461</v>
+      </c>
+      <c r="I81" s="2">
+        <v>39.6923076923078</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <v>45327</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="2">
+        <v>9586.6666666666697</v>
+      </c>
+      <c r="E82" s="2">
+        <v>26</v>
+      </c>
+      <c r="F82" s="2">
+        <v>185</v>
+      </c>
+      <c r="G82" s="2">
+        <v>1846.6666666666699</v>
+      </c>
+      <c r="H82" s="2">
+        <v>468</v>
+      </c>
+      <c r="I82" s="2">
+        <v>40.184615384615498</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3">
+        <v>45332</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="2">
+        <v>9726.6666666666697</v>
+      </c>
+      <c r="E83" s="2">
+        <v>25</v>
+      </c>
+      <c r="F83" s="2">
+        <v>186</v>
+      </c>
+      <c r="G83" s="2">
+        <v>1874.1666666666699</v>
+      </c>
+      <c r="H83" s="2">
+        <v>475</v>
+      </c>
+      <c r="I83" s="2">
+        <v>40.676923076923202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>45337</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" s="2">
+        <v>9866.6666666666697</v>
+      </c>
+      <c r="E84" s="2">
+        <v>35</v>
+      </c>
+      <c r="F84" s="2">
+        <v>187</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1901.6666666666699</v>
+      </c>
+      <c r="H84" s="2">
+        <v>482</v>
+      </c>
+      <c r="I84" s="2">
+        <v>41.1692307692309</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
+        <v>45342</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="2">
+        <v>10006.666666666701</v>
+      </c>
+      <c r="E85" s="2">
+        <v>34</v>
+      </c>
+      <c r="F85" s="2">
+        <v>188</v>
+      </c>
+      <c r="G85" s="2">
+        <v>1929.1666666666699</v>
+      </c>
+      <c r="H85" s="2">
+        <v>489</v>
+      </c>
+      <c r="I85" s="2">
+        <v>41.661538461538598</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <v>45347</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="2">
+        <v>10146.666666666701</v>
+      </c>
+      <c r="E86" s="2">
+        <v>33</v>
+      </c>
+      <c r="F86" s="2">
+        <v>189</v>
+      </c>
+      <c r="G86" s="2">
+        <v>1956.6666666666699</v>
+      </c>
+      <c r="H86" s="2">
+        <v>496</v>
+      </c>
+      <c r="I86" s="2">
+        <v>42.153846153846303</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <v>45352</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" s="2">
+        <v>10286.666666666701</v>
+      </c>
+      <c r="E87" s="2">
+        <v>32</v>
+      </c>
+      <c r="F87" s="2">
+        <v>190</v>
+      </c>
+      <c r="G87" s="2">
+        <v>1984.1666666666699</v>
+      </c>
+      <c r="H87" s="2">
+        <v>503</v>
+      </c>
+      <c r="I87" s="2">
+        <v>42.646153846154</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <v>45357</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="2">
+        <v>10426.666666666701</v>
+      </c>
+      <c r="E88" s="2">
+        <v>31</v>
+      </c>
+      <c r="F88" s="2">
+        <v>191</v>
+      </c>
+      <c r="G88" s="2">
+        <v>2011.6666666666699</v>
+      </c>
+      <c r="H88" s="2">
+        <v>510</v>
+      </c>
+      <c r="I88" s="2">
+        <v>43.138461538461698</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <v>45362</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="2">
+        <v>10566.666666666701</v>
+      </c>
+      <c r="E89" s="2">
+        <v>30</v>
+      </c>
+      <c r="F89" s="2">
+        <v>192</v>
+      </c>
+      <c r="G89" s="2">
+        <v>2039.1666666666699</v>
+      </c>
+      <c r="H89" s="2">
+        <v>517</v>
+      </c>
+      <c r="I89" s="2">
+        <v>43.630769230769403</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <v>45367</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" s="2">
+        <v>10706.666666666701</v>
+      </c>
+      <c r="E90" s="2">
+        <v>29</v>
+      </c>
+      <c r="F90" s="2">
+        <v>193</v>
+      </c>
+      <c r="G90" s="2">
+        <v>2066.6666666666702</v>
+      </c>
+      <c r="H90" s="2">
+        <v>524</v>
+      </c>
+      <c r="I90" s="2">
+        <v>44.1230769230771</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <v>45372</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="2">
+        <v>10846.666666666701</v>
+      </c>
+      <c r="E91" s="2">
+        <v>28</v>
+      </c>
+      <c r="F91" s="2">
+        <v>194</v>
+      </c>
+      <c r="G91" s="2">
+        <v>2094.1666666666702</v>
+      </c>
+      <c r="H91" s="2">
+        <v>531</v>
+      </c>
+      <c r="I91" s="2">
+        <v>44.615384615384798</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3">
+        <v>45377</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="2">
+        <v>10986.666666666701</v>
+      </c>
+      <c r="E92" s="2">
+        <v>27</v>
+      </c>
+      <c r="F92" s="2">
+        <v>195</v>
+      </c>
+      <c r="G92" s="2">
+        <v>2121.6666666666702</v>
+      </c>
+      <c r="H92" s="2">
+        <v>538</v>
+      </c>
+      <c r="I92" s="2">
+        <v>45.107692307692403</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3">
+        <v>45382</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93" s="2">
+        <v>11126.666666666701</v>
+      </c>
+      <c r="E93" s="2">
+        <v>26</v>
+      </c>
+      <c r="F93" s="2">
+        <v>196</v>
+      </c>
+      <c r="G93" s="2">
+        <v>2149.1666666666702</v>
+      </c>
+      <c r="H93" s="2">
+        <v>545</v>
+      </c>
+      <c r="I93" s="2">
+        <v>45.6000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3">
+        <v>45387</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="2">
+        <v>11266.666666666701</v>
+      </c>
+      <c r="E94" s="2">
+        <v>25</v>
+      </c>
+      <c r="F94" s="2">
+        <v>197</v>
+      </c>
+      <c r="G94" s="2">
+        <v>2176.6666666666702</v>
+      </c>
+      <c r="H94" s="2">
+        <v>552</v>
+      </c>
+      <c r="I94" s="2">
+        <v>46.092307692307799</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3">
+        <v>45392</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="2">
+        <v>11406.666666666701</v>
+      </c>
+      <c r="E95" s="2">
+        <v>13</v>
+      </c>
+      <c r="F95" s="2">
+        <v>198</v>
+      </c>
+      <c r="G95" s="2">
+        <v>2204.1666666666702</v>
+      </c>
+      <c r="H95" s="2">
+        <v>559</v>
+      </c>
+      <c r="I95" s="2">
+        <v>46.584615384615503</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3">
+        <v>45397</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="2">
+        <v>11546.666666666701</v>
+      </c>
+      <c r="E96" s="2">
+        <v>12</v>
+      </c>
+      <c r="F96" s="2">
+        <v>199</v>
+      </c>
+      <c r="G96" s="2">
+        <v>2231.6666666666702</v>
+      </c>
+      <c r="H96" s="2">
+        <v>566</v>
+      </c>
+      <c r="I96" s="2">
+        <v>47.076923076923201</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
+        <v>45402</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" s="2">
+        <v>11686.666666666701</v>
+      </c>
+      <c r="E97" s="2">
+        <v>11</v>
+      </c>
+      <c r="F97" s="2">
+        <v>200</v>
+      </c>
+      <c r="G97" s="2">
+        <v>2259.1666666666702</v>
+      </c>
+      <c r="H97" s="2">
+        <v>573</v>
+      </c>
+      <c r="I97" s="2">
+        <v>47.569230769230899</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
+        <v>45407</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="2">
+        <v>11826.666666666701</v>
+      </c>
+      <c r="E98" s="2">
+        <v>29</v>
+      </c>
+      <c r="F98" s="2">
+        <v>201</v>
+      </c>
+      <c r="G98" s="2">
+        <v>2286.6666666666702</v>
+      </c>
+      <c r="H98" s="2">
+        <v>580</v>
+      </c>
+      <c r="I98" s="2">
+        <v>48.061538461538603</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3">
+        <v>45412</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="2">
+        <v>11966.666666666701</v>
+      </c>
+      <c r="E99" s="2">
+        <v>28</v>
+      </c>
+      <c r="F99" s="2">
+        <v>202</v>
+      </c>
+      <c r="G99" s="2">
+        <v>2314.1666666666702</v>
+      </c>
+      <c r="H99" s="2">
+        <v>587</v>
+      </c>
+      <c r="I99" s="2">
+        <v>48.553846153846301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3">
+        <v>45417</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="2">
+        <v>12106.666666666701</v>
+      </c>
+      <c r="E100" s="2">
+        <v>27</v>
+      </c>
+      <c r="F100" s="2">
+        <v>203</v>
+      </c>
+      <c r="G100" s="2">
+        <v>2341.6666666666702</v>
+      </c>
+      <c r="H100" s="2">
+        <v>594</v>
+      </c>
+      <c r="I100" s="2">
+        <v>49.046153846153999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3">
+        <v>45422</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="2">
+        <v>12246.666666666701</v>
+      </c>
+      <c r="E101" s="2">
+        <v>26</v>
+      </c>
+      <c r="F101" s="2">
+        <v>204</v>
+      </c>
+      <c r="G101" s="2">
+        <v>2369.1666666666702</v>
+      </c>
+      <c r="H101" s="2">
+        <v>601</v>
+      </c>
+      <c r="I101" s="2">
+        <v>49.538461538461704</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3">
+        <v>45427</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="2">
+        <v>12386.666666666701</v>
+      </c>
+      <c r="E102" s="2">
+        <v>25</v>
+      </c>
+      <c r="F102" s="2">
+        <v>205</v>
+      </c>
+      <c r="G102" s="2">
+        <v>2396.6666666666702</v>
+      </c>
+      <c r="H102" s="2">
+        <v>608</v>
+      </c>
+      <c r="I102" s="2">
+        <v>50.030769230769401</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3">
+        <v>45432</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" s="2">
+        <v>12526.666666666701</v>
+      </c>
+      <c r="E103" s="2">
+        <v>29</v>
+      </c>
+      <c r="F103" s="2">
+        <v>206</v>
+      </c>
+      <c r="G103" s="2">
+        <v>2424.1666666666702</v>
+      </c>
+      <c r="H103" s="2">
+        <v>615</v>
+      </c>
+      <c r="I103" s="2">
+        <v>50.523076923077099</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3">
+        <v>45437</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="2">
+        <v>12666.666666666701</v>
+      </c>
+      <c r="E104" s="2">
+        <v>28</v>
+      </c>
+      <c r="F104" s="2">
+        <v>207</v>
+      </c>
+      <c r="G104" s="2">
+        <v>2451.6666666666702</v>
+      </c>
+      <c r="H104" s="2">
+        <v>622</v>
+      </c>
+      <c r="I104" s="2">
+        <v>51.015384615384797</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3">
+        <v>45442</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" s="2">
+        <v>12806.666666666701</v>
+      </c>
+      <c r="E105" s="2">
+        <v>27</v>
+      </c>
+      <c r="F105" s="2">
+        <v>208</v>
+      </c>
+      <c r="G105" s="2">
+        <v>2479.1666666666702</v>
+      </c>
+      <c r="H105" s="2">
+        <v>629</v>
+      </c>
+      <c r="I105" s="2">
+        <v>51.507692307692501</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3">
+        <v>45447</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" s="2">
+        <v>12946.666666666701</v>
+      </c>
+      <c r="E106" s="2">
+        <v>26</v>
+      </c>
+      <c r="F106" s="2">
+        <v>209</v>
+      </c>
+      <c r="G106" s="2">
+        <v>2506.6666666666702</v>
+      </c>
+      <c r="H106" s="2">
+        <v>636</v>
+      </c>
+      <c r="I106" s="2">
+        <v>52.000000000000199</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3">
+        <v>45452</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="2">
+        <v>13086.666666666701</v>
+      </c>
+      <c r="E107" s="2">
+        <v>25</v>
+      </c>
+      <c r="F107" s="2">
+        <v>210</v>
+      </c>
+      <c r="G107" s="2">
+        <v>2534.1666666666702</v>
+      </c>
+      <c r="H107" s="2">
+        <v>643</v>
+      </c>
+      <c r="I107" s="2">
+        <v>52.492307692307897</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3">
+        <v>45457</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="2">
+        <v>13226.666666666701</v>
+      </c>
+      <c r="E108" s="2">
+        <v>29</v>
+      </c>
+      <c r="F108" s="2">
+        <v>211</v>
+      </c>
+      <c r="G108" s="2">
+        <v>2561.6666666666702</v>
+      </c>
+      <c r="H108" s="2">
+        <v>650</v>
+      </c>
+      <c r="I108" s="2">
+        <v>52.984615384615601</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3">
+        <v>45462</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" s="2">
+        <v>13366.666666666701</v>
+      </c>
+      <c r="E109" s="2">
+        <v>28</v>
+      </c>
+      <c r="F109" s="2">
+        <v>212</v>
+      </c>
+      <c r="G109" s="2">
+        <v>2589.1666666666702</v>
+      </c>
+      <c r="H109" s="2">
+        <v>657</v>
+      </c>
+      <c r="I109" s="2">
+        <v>53.476923076923299</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3">
+        <v>45467</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="2">
+        <v>13506.666666666701</v>
+      </c>
+      <c r="E110" s="2">
+        <v>27</v>
+      </c>
+      <c r="F110" s="2">
+        <v>213</v>
+      </c>
+      <c r="G110" s="2">
+        <v>2616.6666666666702</v>
+      </c>
+      <c r="H110" s="2">
+        <v>664</v>
+      </c>
+      <c r="I110" s="2">
+        <v>53.969230769230997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3">
+        <v>45472</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="2">
+        <v>13646.666666666701</v>
+      </c>
+      <c r="E111" s="2">
+        <v>26</v>
+      </c>
+      <c r="F111" s="2">
+        <v>214</v>
+      </c>
+      <c r="G111" s="2">
+        <v>2644.1666666666702</v>
+      </c>
+      <c r="H111" s="2">
+        <v>671</v>
+      </c>
+      <c r="I111" s="2">
+        <v>54.461538461538701</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3">
+        <v>45477</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="2">
+        <v>13786.666666666701</v>
+      </c>
+      <c r="E112" s="2">
+        <v>25</v>
+      </c>
+      <c r="F112" s="2">
+        <v>215</v>
+      </c>
+      <c r="G112" s="2">
+        <v>2671.6666666666702</v>
+      </c>
+      <c r="H112" s="2">
+        <v>678</v>
+      </c>
+      <c r="I112" s="2">
+        <v>54.953846153846399</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3">
+        <v>45482</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="2">
+        <v>13926.666666666701</v>
+      </c>
+      <c r="E113" s="2">
+        <v>26</v>
+      </c>
+      <c r="F113" s="2">
+        <v>216</v>
+      </c>
+      <c r="G113" s="2">
+        <v>2699.1666666666702</v>
+      </c>
+      <c r="H113" s="2">
+        <v>685</v>
+      </c>
+      <c r="I113" s="2">
+        <v>55.446153846154097</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3">
+        <v>45487</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="2">
+        <v>14066.666666666701</v>
+      </c>
+      <c r="E114" s="2">
+        <v>25</v>
+      </c>
+      <c r="F114" s="2">
+        <v>217</v>
+      </c>
+      <c r="G114" s="2">
+        <v>2726.6666666666702</v>
+      </c>
+      <c r="H114" s="2">
+        <v>692</v>
+      </c>
+      <c r="I114" s="2">
+        <v>55.938461538461802</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3">
+        <v>45492</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" s="2">
+        <v>14206.666666666701</v>
+      </c>
+      <c r="E115" s="2">
+        <v>29</v>
+      </c>
+      <c r="F115" s="2">
+        <v>218</v>
+      </c>
+      <c r="G115" s="2">
+        <v>2754.1666666666702</v>
+      </c>
+      <c r="H115" s="2">
+        <v>699</v>
+      </c>
+      <c r="I115" s="2">
+        <v>56.430769230769499</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3">
+        <v>45497</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="2">
+        <v>14346.666666666701</v>
+      </c>
+      <c r="E116" s="2">
+        <v>28</v>
+      </c>
+      <c r="F116" s="2">
+        <v>219</v>
+      </c>
+      <c r="G116" s="2">
+        <v>2781.6666666666702</v>
+      </c>
+      <c r="H116" s="2">
+        <v>706</v>
+      </c>
+      <c r="I116" s="2">
+        <v>56.923076923077197</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3">
+        <v>45502</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" s="2">
+        <v>14486.666666666701</v>
+      </c>
+      <c r="E117" s="2">
+        <v>27</v>
+      </c>
+      <c r="F117" s="2">
+        <v>220</v>
+      </c>
+      <c r="G117" s="2">
+        <v>2809.1666666666702</v>
+      </c>
+      <c r="H117" s="2">
+        <v>713</v>
+      </c>
+      <c r="I117" s="2">
+        <v>57.415384615384802</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3">
+        <v>45507</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="2">
+        <v>14626.666666666701</v>
+      </c>
+      <c r="E118" s="2">
+        <v>26</v>
+      </c>
+      <c r="F118" s="2">
+        <v>221</v>
+      </c>
+      <c r="G118" s="2">
+        <v>2836.6666666666702</v>
+      </c>
+      <c r="H118" s="2">
+        <v>720</v>
+      </c>
+      <c r="I118" s="2">
+        <v>57.9076923076925</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3">
+        <v>45512</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="2">
+        <v>14766.666666666701</v>
+      </c>
+      <c r="E119" s="2">
+        <v>29</v>
+      </c>
+      <c r="F119" s="2">
+        <v>222</v>
+      </c>
+      <c r="G119" s="2">
+        <v>2864.1666666666702</v>
+      </c>
+      <c r="H119" s="2">
+        <v>727</v>
+      </c>
+      <c r="I119" s="2">
+        <v>58.400000000000198</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3">
+        <v>45517</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="2">
+        <v>14906.666666666701</v>
+      </c>
+      <c r="E120" s="2">
+        <v>28</v>
+      </c>
+      <c r="F120" s="2">
+        <v>223</v>
+      </c>
+      <c r="G120" s="2">
+        <v>2891.6666666666702</v>
+      </c>
+      <c r="H120" s="2">
+        <v>734</v>
+      </c>
+      <c r="I120" s="2">
+        <v>58.892307692307902</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3">
+        <v>45522</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121" s="2">
+        <v>15046.666666666701</v>
+      </c>
+      <c r="E121" s="2">
+        <v>27</v>
+      </c>
+      <c r="F121" s="2">
+        <v>224</v>
+      </c>
+      <c r="G121" s="2">
+        <v>2919.1666666666702</v>
+      </c>
+      <c r="H121" s="2">
+        <v>741</v>
+      </c>
+      <c r="I121" s="2">
+        <v>59.3846153846156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3">
+        <v>45527</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="2">
+        <v>15186.666666666701</v>
+      </c>
+      <c r="E122" s="2">
+        <v>29</v>
+      </c>
+      <c r="F122" s="2">
+        <v>225</v>
+      </c>
+      <c r="G122" s="2">
+        <v>2946.6666666666702</v>
+      </c>
+      <c r="H122" s="2">
+        <v>748</v>
+      </c>
+      <c r="I122" s="2">
+        <v>59.876923076923298</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3">
+        <v>45532</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="2">
+        <v>15326.666666666701</v>
+      </c>
+      <c r="E123" s="2">
+        <v>28</v>
+      </c>
+      <c r="F123" s="2">
+        <v>226</v>
+      </c>
+      <c r="G123" s="2">
+        <v>2974.1666666666702</v>
+      </c>
+      <c r="H123" s="2">
+        <v>755</v>
+      </c>
+      <c r="I123" s="2">
+        <v>60.369230769231002</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>